--- a/数据文本/小兵属性.xlsx
+++ b/数据文本/小兵属性.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LeeKw\OneDrive\GameDocument\WAR3\JZZZ\Jass\数据文本\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05ADE79-8A8F-4373-B365-CD26BC4F702D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{A05ADE79-8A8F-4373-B365-CD26BC4F702D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{290D3481-111A-4217-B5E2-31C1899BEFCF}"/>
   <bookViews>
     <workbookView xWindow="525" yWindow="3540" windowWidth="24960" windowHeight="10185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="90">
   <si>
     <t>名称</t>
   </si>
@@ -297,6 +297,12 @@
   </si>
   <si>
     <t>烧蓝750</t>
+  </si>
+  <si>
+    <t>铁甲步兵 同5</t>
+  </si>
+  <si>
+    <t>丹阳兵 同上</t>
   </si>
 </sst>
 </file>
@@ -682,9 +688,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C4BBDC-C76E-46DF-9844-049487C13212}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,7 +950,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1363,7 +1369,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="F21">
         <v>0</v>

--- a/数据文本/小兵属性.xlsx
+++ b/数据文本/小兵属性.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LeeKw\OneDrive\GameDocument\WAR3\JZZZ\Jass\数据文本\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1c086955d6c38358/GameDocument/WAR3/JZZZ/Jass/数据文本/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{A05ADE79-8A8F-4373-B365-CD26BC4F702D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{290D3481-111A-4217-B5E2-31C1899BEFCF}"/>
+  <xr:revisionPtr revIDLastSave="115" documentId="13_ncr:1_{A05ADE79-8A8F-4373-B365-CD26BC4F702D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{52FE0C59-6946-454F-8ECC-ECB333353F4E}"/>
   <bookViews>
-    <workbookView xWindow="525" yWindow="3540" windowWidth="24960" windowHeight="10185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="小兵属性" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="血量调整方案" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="97">
   <si>
     <t>名称</t>
   </si>
@@ -303,6 +305,27 @@
   </si>
   <si>
     <t>丹阳兵 同上</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>percent</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>是否远程</t>
+  </si>
+  <si>
+    <t>理论血量</t>
+  </si>
+  <si>
+    <t>实际血量</t>
+  </si>
+  <si>
+    <t>isRange</t>
   </si>
 </sst>
 </file>
@@ -688,15 +711,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C4BBDC-C76E-46DF-9844-049487C13212}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="7" max="8" width="14.140625" customWidth="1"/>
     <col min="9" max="9" width="30.28515625" bestFit="1" customWidth="1"/>
@@ -1690,4 +1713,971 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9448327D-5CD7-40CD-B65C-163C5EF78C60}">
+  <dimension ref="A1:I27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1">
+        <f>E1*(1-I$3+F1)</f>
+        <v>96</v>
+      </c>
+      <c r="E1">
+        <f>I1</f>
+        <v>120</v>
+      </c>
+      <c r="H1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D24" si="0">E2*(1-I$3+F2)</f>
+        <v>120</v>
+      </c>
+      <c r="E2">
+        <f>E1*I$2</f>
+        <v>150</v>
+      </c>
+      <c r="H2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="E3">
+        <f>E2*I$2</f>
+        <v>187.5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>187.5</v>
+      </c>
+      <c r="E4">
+        <f>E3*I$2</f>
+        <v>234.375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>234.375</v>
+      </c>
+      <c r="E5">
+        <f>E4*I$2</f>
+        <v>292.96875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>292.96875</v>
+      </c>
+      <c r="E6">
+        <f>E5*I$2</f>
+        <v>366.2109375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>366.2109375</v>
+      </c>
+      <c r="E7">
+        <f>E6*I$2</f>
+        <v>457.763671875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>457.763671875</v>
+      </c>
+      <c r="E8">
+        <f>E7*I$2</f>
+        <v>572.20458984375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>572.20458984375</v>
+      </c>
+      <c r="E9">
+        <f>E8*I$2</f>
+        <v>715.2557373046875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>715.2557373046875</v>
+      </c>
+      <c r="E10">
+        <f>E9*I$2</f>
+        <v>894.06967163085938</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>894.06967163085938</v>
+      </c>
+      <c r="E11">
+        <f>E10*I$2</f>
+        <v>1117.5870895385742</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>1117.5870895385742</v>
+      </c>
+      <c r="E12">
+        <f>E11*I$2</f>
+        <v>1396.9838619232178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>1396.9838619232178</v>
+      </c>
+      <c r="E13">
+        <f>E12*I$2</f>
+        <v>1746.2298274040222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>1746.2298274040222</v>
+      </c>
+      <c r="E14">
+        <f>E13*I$2</f>
+        <v>2182.7872842550278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>2182.7872842550278</v>
+      </c>
+      <c r="E15">
+        <f>E14*I$2</f>
+        <v>2728.4841053187847</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>2728.4841053187847</v>
+      </c>
+      <c r="E16">
+        <f>E15*I$2</f>
+        <v>3410.6051316484809</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>3410.6051316484809</v>
+      </c>
+      <c r="E17">
+        <f>E16*I$2</f>
+        <v>4263.2564145606011</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>4263.2564145606011</v>
+      </c>
+      <c r="E18">
+        <f>E17*I$2</f>
+        <v>5329.0705182007514</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>5329.0705182007514</v>
+      </c>
+      <c r="E19">
+        <f>E18*I$2</f>
+        <v>6661.3381477509392</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>6661.3381477509392</v>
+      </c>
+      <c r="E20">
+        <f>E19*I$2</f>
+        <v>8326.6726846886741</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>8326.6726846886741</v>
+      </c>
+      <c r="E21">
+        <f>E20*I$2</f>
+        <v>10408.340855860843</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>10408.340855860843</v>
+      </c>
+      <c r="E22">
+        <f>E21*I$2</f>
+        <v>13010.426069826053</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>13010.426069826055</v>
+      </c>
+      <c r="E23">
+        <f>E22*I$2</f>
+        <v>16263.032587282567</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>16263.032587282567</v>
+      </c>
+      <c r="E24">
+        <f>E23*I$2</f>
+        <v>20328.790734103208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAEC0C5E-3A80-4848-BABF-C80E69D1D4A0}">
+  <dimension ref="A1:I28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <f>IF(F2,E2*(1-I$4),E2)</f>
+        <v>120</v>
+      </c>
+      <c r="E2">
+        <f>I2</f>
+        <v>120</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D27" si="0">IF(F3,E3*(1-I$4),E3)</f>
+        <v>127.5</v>
+      </c>
+      <c r="E3">
+        <f>E2*I$3</f>
+        <v>150</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>187.5</v>
+      </c>
+      <c r="E4">
+        <f>E3*I$3</f>
+        <v>187.5</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>199.21875</v>
+      </c>
+      <c r="E5">
+        <f>E4*I$3</f>
+        <v>234.375</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>292.96875</v>
+      </c>
+      <c r="E6">
+        <f>E5*I$3</f>
+        <v>292.96875</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>311.279296875</v>
+      </c>
+      <c r="E7">
+        <f>E6*I$3</f>
+        <v>366.2109375</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>389.09912109375</v>
+      </c>
+      <c r="E9">
+        <f>E7*I$3</f>
+        <v>457.763671875</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>486.3739013671875</v>
+      </c>
+      <c r="E10">
+        <f>E9*I$3</f>
+        <v>572.20458984375</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>607.96737670898438</v>
+      </c>
+      <c r="E11">
+        <f>E10*I$3</f>
+        <v>715.2557373046875</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>894.06967163085938</v>
+      </c>
+      <c r="E12">
+        <f>E11*I$3</f>
+        <v>894.06967163085938</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>949.94902610778809</v>
+      </c>
+      <c r="E13">
+        <f>E12*I$3</f>
+        <v>1117.5870895385742</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>1396.9838619232178</v>
+      </c>
+      <c r="E14">
+        <f>E13*I$3</f>
+        <v>1396.9838619232178</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>1484.2953532934189</v>
+      </c>
+      <c r="E15">
+        <f>E14*I$3</f>
+        <v>1746.2298274040222</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>1855.3691916167736</v>
+      </c>
+      <c r="E16">
+        <f>E15*I$3</f>
+        <v>2182.7872842550278</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>2728.4841053187847</v>
+      </c>
+      <c r="E17">
+        <f>E16*I$3</f>
+        <v>2728.4841053187847</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>3410.6051316484809</v>
+      </c>
+      <c r="E18">
+        <f>E17*I$3</f>
+        <v>3410.6051316484809</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>4263.2564145606011</v>
+      </c>
+      <c r="E19">
+        <f>E18*I$3</f>
+        <v>4263.2564145606011</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>5329.0705182007514</v>
+      </c>
+      <c r="E20">
+        <f>E19*I$3</f>
+        <v>5329.0705182007514</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>6661.3381477509392</v>
+      </c>
+      <c r="E22">
+        <f>E20*I$3</f>
+        <v>6661.3381477509392</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>8326.6726846886741</v>
+      </c>
+      <c r="E23">
+        <f>E22*I$3</f>
+        <v>8326.6726846886741</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>10408.340855860843</v>
+      </c>
+      <c r="E24">
+        <f>E23*I$3</f>
+        <v>10408.340855860843</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>11058.862159352146</v>
+      </c>
+      <c r="E25">
+        <f>E24*I$3</f>
+        <v>13010.426069826053</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>16263.032587282567</v>
+      </c>
+      <c r="E26">
+        <f>E25*I$3</f>
+        <v>16263.032587282567</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>17279.472123987725</v>
+      </c>
+      <c r="E27">
+        <f>E26*I$3</f>
+        <v>20328.790734103208</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>